--- a/GameStop Price history.xlsx
+++ b/GameStop Price history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukes\Documents\Black-Scholes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEEB50B-54A3-45F4-80B5-386E0F3890E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371D51AE-6491-4867-AE8C-DFD155885C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF86B5CF-657F-46AF-B425-B9BCE1B57643}"/>
   </bookViews>
@@ -13845,11 +13845,11 @@
         <v>15.72</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E770" ca="1" si="33">LN(D708/D707)</f>
+        <f t="shared" ref="E707:E755" ca="1" si="33">LN(D708/D707)</f>
         <v>-5.7416425676752826E-3</v>
       </c>
       <c r="F707">
-        <f t="shared" ref="F707:F770" ca="1" si="34">E707^2</f>
+        <f t="shared" ref="F707:F755" ca="1" si="34">E707^2</f>
         <v>3.2966459374940813E-5</v>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
         <v>4.17</v>
       </c>
       <c r="D708" s="5">
-        <f t="shared" ref="D708:D771" ca="1" si="35">OFFSET($A$4,ROW(D707)*6-1,0)</f>
+        <f t="shared" ref="D708:D756" ca="1" si="35">OFFSET($A$4,ROW(D707)*6-1,0)</f>
         <v>15.63</v>
       </c>
       <c r="E708">
@@ -21502,7 +21502,7 @@
         <v>6592949</v>
       </c>
     </row>
-    <row r="1904" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
         <v>193</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>9364495</v>
       </c>
     </row>
-    <row r="1910" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>194</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>5550212</v>
       </c>
     </row>
-    <row r="1916" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>195</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>6108539</v>
       </c>
     </row>
-    <row r="1922" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
         <v>196</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>12170028</v>
       </c>
     </row>
-    <row r="1928" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
         <v>197</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>13147148</v>
       </c>
     </row>
-    <row r="1934" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
         <v>198</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>12502863</v>
       </c>
     </row>
-    <row r="1940" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
         <v>199</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>11629918</v>
       </c>
     </row>
-    <row r="1946" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
         <v>200</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>7868144</v>
       </c>
     </row>
-    <row r="1952" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
         <v>201</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>9810294</v>
       </c>
     </row>
-    <row r="1958" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
         <v>202</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>6416083</v>
       </c>
     </row>
-    <row r="1964" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
         <v>203</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>6761749</v>
       </c>
     </row>
-    <row r="1970" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1970" s="1" t="s">
         <v>204</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>9044430</v>
       </c>
     </row>
-    <row r="2024" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="1" t="s">
         <v>205</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>10635940</v>
       </c>
     </row>
-    <row r="2030" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
         <v>206</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>13364412</v>
       </c>
     </row>
-    <row r="2036" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
         <v>207</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>6449953</v>
       </c>
     </row>
-    <row r="2042" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2042" s="1" t="s">
         <v>208</v>
       </c>
@@ -22222,7 +22222,7 @@
         <v>5701244</v>
       </c>
     </row>
-    <row r="2048" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2048" s="1" t="s">
         <v>209</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>10329416</v>
       </c>
     </row>
-    <row r="2054" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
         <v>210</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>8675636</v>
       </c>
     </row>
-    <row r="2060" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2060" s="1" t="s">
         <v>211</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>29191468</v>
       </c>
     </row>
-    <row r="2066" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
         <v>212</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>6009223</v>
       </c>
     </row>
-    <row r="2072" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2072" s="1" t="s">
         <v>213</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>4260103</v>
       </c>
     </row>
-    <row r="2078" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2078" s="1" t="s">
         <v>214</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>2887605</v>
       </c>
     </row>
-    <row r="2084" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
         <v>215</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>3130713</v>
       </c>
     </row>
-    <row r="2090" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2090" s="1" t="s">
         <v>216</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>5888392</v>
       </c>
     </row>
-    <row r="2096" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
         <v>217</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>6081927</v>
       </c>
     </row>
-    <row r="2102" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
         <v>218</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>5596508</v>
       </c>
     </row>
-    <row r="2156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
         <v>219</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>5208919</v>
       </c>
     </row>
-    <row r="2162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
         <v>220</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>5271396</v>
       </c>
     </row>
-    <row r="2168" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2168" s="1" t="s">
         <v>221</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>4327121</v>
       </c>
     </row>
-    <row r="2174" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
         <v>222</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>3209020</v>
       </c>
     </row>
-    <row r="2180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
         <v>223</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>5789991</v>
       </c>
     </row>
-    <row r="2186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2186" s="1" t="s">
         <v>224</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>6020613</v>
       </c>
     </row>
-    <row r="2192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
         <v>225</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>7703497</v>
       </c>
     </row>
-    <row r="2198" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
         <v>226</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>5488704</v>
       </c>
     </row>
-    <row r="2204" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
         <v>227</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>10946499</v>
       </c>
     </row>
-    <row r="2210" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
         <v>228</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>8601213</v>
       </c>
     </row>
-    <row r="2216" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
         <v>229</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>7643148</v>
       </c>
     </row>
-    <row r="2222" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
         <v>230</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>5970224</v>
       </c>
     </row>
-    <row r="2228" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
         <v>231</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>4325679</v>
       </c>
     </row>
-    <row r="2288" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
         <v>232</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>3896355</v>
       </c>
     </row>
-    <row r="2294" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
         <v>233</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>3755957</v>
       </c>
     </row>
-    <row r="2300" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
         <v>234</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>3551794</v>
       </c>
     </row>
-    <row r="2306" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
         <v>235</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>3085403</v>
       </c>
     </row>
-    <row r="2312" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
         <v>236</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>4823326</v>
       </c>
     </row>
-    <row r="2318" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
         <v>237</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>8954331</v>
       </c>
     </row>
-    <row r="2324" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2324" s="1" t="s">
         <v>238</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>3933792</v>
       </c>
     </row>
-    <row r="2330" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2330" s="1" t="s">
         <v>239</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>2973321</v>
       </c>
     </row>
-    <row r="2336" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2336" s="1" t="s">
         <v>240</v>
       </c>
@@ -23692,7 +23692,7 @@
         <v>4070383</v>
       </c>
     </row>
-    <row r="2342" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2342" s="1" t="s">
         <v>241</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>3686620</v>
       </c>
     </row>
-    <row r="2348" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2348" s="1" t="s">
         <v>242</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>5304641</v>
       </c>
     </row>
-    <row r="2354" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2354" s="1" t="s">
         <v>243</v>
       </c>
@@ -24022,7 +24022,7 @@
         <v>5229101</v>
       </c>
     </row>
-    <row r="2408" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2408" s="1" t="s">
         <v>244</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>3983240</v>
       </c>
     </row>
-    <row r="2414" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2414" s="1" t="s">
         <v>245</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>2695195</v>
       </c>
     </row>
-    <row r="2420" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2420" s="1" t="s">
         <v>246</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>4127874</v>
       </c>
     </row>
-    <row r="2426" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2426" s="1" t="s">
         <v>247</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>2732843</v>
       </c>
     </row>
-    <row r="2432" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2432" s="1" t="s">
         <v>248</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>2542140</v>
       </c>
     </row>
-    <row r="2438" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2438" s="1" t="s">
         <v>249</v>
       </c>
@@ -24202,7 +24202,7 @@
         <v>3919476</v>
       </c>
     </row>
-    <row r="2444" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2444" s="1" t="s">
         <v>250</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>4516125</v>
       </c>
     </row>
-    <row r="2450" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2450" s="1" t="s">
         <v>251</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>5697108</v>
       </c>
     </row>
-    <row r="2456" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2456" s="1" t="s">
         <v>252</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>5043577</v>
       </c>
     </row>
-    <row r="2462" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2462" s="1" t="s">
         <v>253</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>1967285</v>
       </c>
     </row>
-    <row r="2468" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2468" s="1" t="s">
         <v>254</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>1750984</v>
       </c>
     </row>
-    <row r="2474" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2474" s="1" t="s">
         <v>255</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>2253513</v>
       </c>
     </row>
-    <row r="2480" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2480" s="1" t="s">
         <v>256</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>2612858</v>
       </c>
     </row>
-    <row r="2486" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2486" s="1" t="s">
         <v>257</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>3538954</v>
       </c>
     </row>
-    <row r="2540" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="1" t="s">
         <v>258</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>3207672</v>
       </c>
     </row>
-    <row r="2546" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2546" s="1" t="s">
         <v>259</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>2548243</v>
       </c>
     </row>
-    <row r="2552" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2552" s="1" t="s">
         <v>260</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>2306798</v>
       </c>
     </row>
-    <row r="2558" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2558" s="1" t="s">
         <v>261</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>2627012</v>
       </c>
     </row>
-    <row r="2564" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2564" s="1" t="s">
         <v>262</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>4106124</v>
       </c>
     </row>
-    <row r="2570" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2570" s="1" t="s">
         <v>263</v>
       </c>
@@ -24862,7 +24862,7 @@
         <v>4452334</v>
       </c>
     </row>
-    <row r="2576" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2576" s="1" t="s">
         <v>264</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>6278660</v>
       </c>
     </row>
-    <row r="2582" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2582" s="1" t="s">
         <v>265</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>3814181</v>
       </c>
     </row>
-    <row r="2588" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2588" s="1" t="s">
         <v>266</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>3921094</v>
       </c>
     </row>
-    <row r="2594" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2594" s="1" t="s">
         <v>267</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>4719989</v>
       </c>
     </row>
-    <row r="2600" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2600" s="1" t="s">
         <v>268</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>4415694</v>
       </c>
     </row>
-    <row r="2666" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2666" s="1" t="s">
         <v>269</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>2919034</v>
       </c>
     </row>
-    <row r="2672" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2672" s="1" t="s">
         <v>270</v>
       </c>
@@ -25372,7 +25372,7 @@
         <v>3122334</v>
       </c>
     </row>
-    <row r="2678" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2678" s="1" t="s">
         <v>271</v>
       </c>
@@ -25402,7 +25402,7 @@
         <v>2606238</v>
       </c>
     </row>
-    <row r="2684" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2684" s="1" t="s">
         <v>272</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>3535053</v>
       </c>
     </row>
-    <row r="2690" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2690" s="1" t="s">
         <v>273</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>4486199</v>
       </c>
     </row>
-    <row r="2696" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2696" s="1" t="s">
         <v>274</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>3289020</v>
       </c>
     </row>
-    <row r="2702" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2702" s="1" t="s">
         <v>275</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>3205333</v>
       </c>
     </row>
-    <row r="2708" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2708" s="1" t="s">
         <v>276</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>4103910</v>
       </c>
     </row>
-    <row r="2714" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2714" s="1" t="s">
         <v>277</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>3089866</v>
       </c>
     </row>
-    <row r="2720" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2720" s="1" t="s">
         <v>278</v>
       </c>
@@ -25612,7 +25612,7 @@
         <v>2451233</v>
       </c>
     </row>
-    <row r="2726" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2726" s="1" t="s">
         <v>279</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>3537436</v>
       </c>
     </row>
-    <row r="2732" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2732" s="1" t="s">
         <v>280</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>2839569</v>
       </c>
     </row>
-    <row r="2738" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2738" s="1" t="s">
         <v>281</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>1901226</v>
       </c>
     </row>
-    <row r="2792" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2792" s="1" t="s">
         <v>282</v>
       </c>
@@ -25972,7 +25972,7 @@
         <v>2820213</v>
       </c>
     </row>
-    <row r="2798" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2798" s="1" t="s">
         <v>283</v>
       </c>
@@ -26002,7 +26002,7 @@
         <v>3397322</v>
       </c>
     </row>
-    <row r="2804" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2804" s="1" t="s">
         <v>284</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>2157956</v>
       </c>
     </row>
-    <row r="2810" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2810" s="1" t="s">
         <v>285</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>3594484</v>
       </c>
     </row>
-    <row r="2816" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2816" s="1" t="s">
         <v>286</v>
       </c>
@@ -26092,7 +26092,7 @@
         <v>3249464</v>
       </c>
     </row>
-    <row r="2822" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2822" s="1" t="s">
         <v>287</v>
       </c>
@@ -26122,7 +26122,7 @@
         <v>2489152</v>
       </c>
     </row>
-    <row r="2828" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2828" s="1" t="s">
         <v>288</v>
       </c>
@@ -26152,7 +26152,7 @@
         <v>2960527</v>
       </c>
     </row>
-    <row r="2834" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2834" s="1" t="s">
         <v>289</v>
       </c>
@@ -26182,7 +26182,7 @@
         <v>3305906</v>
       </c>
     </row>
-    <row r="2840" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2840" s="1" t="s">
         <v>290</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>2211823</v>
       </c>
     </row>
-    <row r="2846" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2846" s="1" t="s">
         <v>291</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>2468492</v>
       </c>
     </row>
-    <row r="2852" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2852" s="1" t="s">
         <v>292</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>3477403</v>
       </c>
     </row>
-    <row r="2906" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2906" s="1" t="s">
         <v>293</v>
       </c>
@@ -26542,7 +26542,7 @@
         <v>6049613</v>
       </c>
     </row>
-    <row r="2912" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2912" s="1" t="s">
         <v>294</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>6150980</v>
       </c>
     </row>
-    <row r="2918" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2918" s="1" t="s">
         <v>295</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>32870301</v>
       </c>
     </row>
-    <row r="2924" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2924" s="1" t="s">
         <v>296</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>2984869</v>
       </c>
     </row>
-    <row r="2930" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2930" s="1" t="s">
         <v>297</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>1915249</v>
       </c>
     </row>
-    <row r="2936" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2936" s="1" t="s">
         <v>298</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>1282019</v>
       </c>
     </row>
-    <row r="2942" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2942" s="1" t="s">
         <v>299</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>1836950</v>
       </c>
     </row>
-    <row r="2948" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2948" s="1" t="s">
         <v>300</v>
       </c>
@@ -26752,7 +26752,7 @@
         <v>3188729</v>
       </c>
     </row>
-    <row r="2954" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2954" s="1" t="s">
         <v>301</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>8547184</v>
       </c>
     </row>
-    <row r="2960" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2960" s="1" t="s">
         <v>302</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>1743004</v>
       </c>
     </row>
-    <row r="2966" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2966" s="1" t="s">
         <v>303</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>1992649</v>
       </c>
     </row>
-    <row r="2972" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2972" s="1" t="s">
         <v>304</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>2228220</v>
       </c>
     </row>
-    <row r="2978" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2978" s="1" t="s">
         <v>305</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>2125200</v>
       </c>
     </row>
-    <row r="3032" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3032" s="1" t="s">
         <v>306</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>2790595</v>
       </c>
     </row>
-    <row r="3038" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3038" s="1" t="s">
         <v>307</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>2026317</v>
       </c>
     </row>
-    <row r="3044" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3044" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3044" s="1" t="s">
         <v>308</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>1834607</v>
       </c>
     </row>
-    <row r="3050" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3050" s="1" t="s">
         <v>309</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>2404499</v>
       </c>
     </row>
-    <row r="3056" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3056" s="1" t="s">
         <v>310</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>1328526</v>
       </c>
     </row>
-    <row r="3062" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3062" s="1" t="s">
         <v>311</v>
       </c>
@@ -27322,7 +27322,7 @@
         <v>4426060</v>
       </c>
     </row>
-    <row r="3068" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3068" s="1" t="s">
         <v>312</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>2671199</v>
       </c>
     </row>
-    <row r="3074" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3074" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3074" s="1" t="s">
         <v>313</v>
       </c>
@@ -27382,7 +27382,7 @@
         <v>2425928</v>
       </c>
     </row>
-    <row r="3080" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3080" s="1" t="s">
         <v>314</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>2594937</v>
       </c>
     </row>
-    <row r="3086" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3086" s="1" t="s">
         <v>315</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>2255789</v>
       </c>
     </row>
-    <row r="3092" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3092" s="1" t="s">
         <v>316</v>
       </c>
@@ -27472,7 +27472,7 @@
         <v>1663721</v>
       </c>
     </row>
-    <row r="3098" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3098" s="1" t="s">
         <v>317</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>4021219</v>
       </c>
     </row>
-    <row r="3146" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3146" s="1" t="s">
         <v>318</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>11906786</v>
       </c>
     </row>
-    <row r="3152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3152" s="1" t="s">
         <v>319</v>
       </c>
@@ -27772,7 +27772,7 @@
         <v>4209587</v>
       </c>
     </row>
-    <row r="3158" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3158" s="1" t="s">
         <v>320</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>2644071</v>
       </c>
     </row>
-    <row r="3164" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3164" s="1" t="s">
         <v>321</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>4386305</v>
       </c>
     </row>
-    <row r="3170" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3170" s="1" t="s">
         <v>322</v>
       </c>
@@ -27862,7 +27862,7 @@
         <v>5903427</v>
       </c>
     </row>
-    <row r="3176" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3176" s="1" t="s">
         <v>323</v>
       </c>
@@ -27892,7 +27892,7 @@
         <v>2691774</v>
       </c>
     </row>
-    <row r="3182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3182" s="1" t="s">
         <v>324</v>
       </c>
@@ -27922,7 +27922,7 @@
         <v>12481014</v>
       </c>
     </row>
-    <row r="3188" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3188" s="1" t="s">
         <v>325</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>6034927</v>
       </c>
     </row>
-    <row r="3194" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3194" s="1" t="s">
         <v>326</v>
       </c>
@@ -27982,7 +27982,7 @@
         <v>3450866</v>
       </c>
     </row>
-    <row r="3200" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3200" s="1" t="s">
         <v>327</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>5716754</v>
       </c>
     </row>
-    <row r="3206" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3206" s="1" t="s">
         <v>328</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>3030283</v>
       </c>
     </row>
-    <row r="3212" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3212" s="1" t="s">
         <v>329</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>3436099</v>
       </c>
     </row>
-    <row r="3218" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3218" s="1" t="s">
         <v>330</v>
       </c>
@@ -28342,7 +28342,7 @@
         <v>2754343</v>
       </c>
     </row>
-    <row r="3272" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3272" s="1" t="s">
         <v>331</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>1738939</v>
       </c>
     </row>
-    <row r="3278" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3278" s="1" t="s">
         <v>332</v>
       </c>
@@ -28402,7 +28402,7 @@
         <v>2094072</v>
       </c>
     </row>
-    <row r="3284" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3284" s="1" t="s">
         <v>333</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>3168877</v>
       </c>
     </row>
-    <row r="3290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3290" s="1" t="s">
         <v>334</v>
       </c>
@@ -28462,7 +28462,7 @@
         <v>2511131</v>
       </c>
     </row>
-    <row r="3296" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3296" s="1" t="s">
         <v>335</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>2274079</v>
       </c>
     </row>
-    <row r="3302" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3302" s="1" t="s">
         <v>336</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>2241316</v>
       </c>
     </row>
-    <row r="3308" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3308" s="1" t="s">
         <v>337</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>2395068</v>
       </c>
     </row>
-    <row r="3314" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3314" s="1" t="s">
         <v>338</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>2305475</v>
       </c>
     </row>
-    <row r="3320" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3320" s="1" t="s">
         <v>339</v>
       </c>
@@ -28612,7 +28612,7 @@
         <v>3106020</v>
       </c>
     </row>
-    <row r="3326" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3326" s="1" t="s">
         <v>340</v>
       </c>
@@ -28642,7 +28642,7 @@
         <v>1478597</v>
       </c>
     </row>
-    <row r="3332" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3332" s="1" t="s">
         <v>341</v>
       </c>
@@ -28672,7 +28672,7 @@
         <v>1997869</v>
       </c>
     </row>
-    <row r="3338" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3338" s="1" t="s">
         <v>342</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>2040331</v>
       </c>
     </row>
-    <row r="3344" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3344" s="1" t="s">
         <v>343</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>4059759</v>
       </c>
     </row>
-    <row r="3410" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3410" s="1" t="s">
         <v>344</v>
       </c>
@@ -29062,7 +29062,7 @@
         <v>2525843</v>
       </c>
     </row>
-    <row r="3416" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3416" s="1" t="s">
         <v>345</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>2024388</v>
       </c>
     </row>
-    <row r="3422" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3422" s="1" t="s">
         <v>346</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>1901308</v>
       </c>
     </row>
-    <row r="3428" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3428" s="1" t="s">
         <v>347</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>2062536</v>
       </c>
     </row>
-    <row r="3434" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3434" s="1" t="s">
         <v>348</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>3577664</v>
       </c>
     </row>
-    <row r="3440" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3440" s="1" t="s">
         <v>349</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>3040934</v>
       </c>
     </row>
-    <row r="3446" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3446" s="1" t="s">
         <v>350</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>1604053</v>
       </c>
     </row>
-    <row r="3452" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3452" s="1" t="s">
         <v>351</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>1798243</v>
       </c>
     </row>
-    <row r="3458" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3458" s="1" t="s">
         <v>352</v>
       </c>
@@ -29302,7 +29302,7 @@
         <v>1786830</v>
       </c>
     </row>
-    <row r="3464" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3464" s="1" t="s">
         <v>353</v>
       </c>
@@ -29332,7 +29332,7 @@
         <v>2231988</v>
       </c>
     </row>
-    <row r="3470" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3470" s="1" t="s">
         <v>354</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>3005541</v>
       </c>
     </row>
-    <row r="3476" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3476" s="1" t="s">
         <v>355</v>
       </c>
@@ -29602,7 +29602,7 @@
         <v>5936032</v>
       </c>
     </row>
-    <row r="3524" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3524" s="1" t="s">
         <v>356</v>
       </c>
@@ -29632,7 +29632,7 @@
         <v>3724283</v>
       </c>
     </row>
-    <row r="3530" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3530" s="1" t="s">
         <v>357</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>3933447</v>
       </c>
     </row>
-    <row r="3536" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3536" s="1" t="s">
         <v>358</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>4099581</v>
       </c>
     </row>
-    <row r="3542" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3542" s="1" t="s">
         <v>359</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>6821967</v>
       </c>
     </row>
-    <row r="3548" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3548" s="1" t="s">
         <v>360</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>14694918</v>
       </c>
     </row>
-    <row r="3554" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3554" s="1" t="s">
         <v>361</v>
       </c>
@@ -29782,7 +29782,7 @@
         <v>4525550</v>
       </c>
     </row>
-    <row r="3560" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3560" s="1" t="s">
         <v>362</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>3583507</v>
       </c>
     </row>
-    <row r="3566" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3566" s="1" t="s">
         <v>363</v>
       </c>
@@ -29842,7 +29842,7 @@
         <v>6605593</v>
       </c>
     </row>
-    <row r="3572" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3572" s="1" t="s">
         <v>364</v>
       </c>
@@ -29872,7 +29872,7 @@
         <v>5193303</v>
       </c>
     </row>
-    <row r="3578" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3578" s="1" t="s">
         <v>365</v>
       </c>
@@ -29902,7 +29902,7 @@
         <v>3606928</v>
       </c>
     </row>
-    <row r="3584" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3584" s="1" t="s">
         <v>366</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>1633260</v>
       </c>
     </row>
-    <row r="3590" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3590" s="1" t="s">
         <v>367</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>1719737</v>
       </c>
     </row>
-    <row r="3596" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3596" s="1" t="s">
         <v>368</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>2097611</v>
       </c>
     </row>
-    <row r="3602" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3602" s="1" t="s">
         <v>369</v>
       </c>
@@ -30022,7 +30022,7 @@
         <v>1953413</v>
       </c>
     </row>
-    <row r="3608" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3608" s="1" t="s">
         <v>370</v>
       </c>
@@ -30292,7 +30292,7 @@
         <v>2079699</v>
       </c>
     </row>
-    <row r="3662" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3662" s="1" t="s">
         <v>371</v>
       </c>
@@ -30322,7 +30322,7 @@
         <v>2757485</v>
       </c>
     </row>
-    <row r="3668" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3668" s="1" t="s">
         <v>372</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>1577944</v>
       </c>
     </row>
-    <row r="3674" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3674" s="1" t="s">
         <v>373</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>1415925</v>
       </c>
     </row>
-    <row r="3680" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3680" s="1" t="s">
         <v>374</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>1689347</v>
       </c>
     </row>
-    <row r="3686" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3686" s="1" t="s">
         <v>375</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>3336445</v>
       </c>
     </row>
-    <row r="3692" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3692" s="1" t="s">
         <v>376</v>
       </c>
@@ -30472,7 +30472,7 @@
         <v>1542689</v>
       </c>
     </row>
-    <row r="3698" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3698" s="1" t="s">
         <v>377</v>
       </c>
@@ -30502,7 +30502,7 @@
         <v>1833818</v>
       </c>
     </row>
-    <row r="3704" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3704" s="1" t="s">
         <v>378</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>2147851</v>
       </c>
     </row>
-    <row r="3710" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3710" s="1" t="s">
         <v>379</v>
       </c>
@@ -30562,7 +30562,7 @@
         <v>1728392</v>
       </c>
     </row>
-    <row r="3716" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3716" s="1" t="s">
         <v>380</v>
       </c>
@@ -30592,7 +30592,7 @@
         <v>2049967</v>
       </c>
     </row>
-    <row r="3722" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3722" s="1" t="s">
         <v>381</v>
       </c>
@@ -30622,7 +30622,7 @@
         <v>3045089</v>
       </c>
     </row>
-    <row r="3728" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3728" s="1" t="s">
         <v>382</v>
       </c>
@@ -30652,7 +30652,7 @@
         <v>1806513</v>
       </c>
     </row>
-    <row r="3734" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3734" s="1" t="s">
         <v>383</v>
       </c>
@@ -30922,7 +30922,7 @@
         <v>3723294</v>
       </c>
     </row>
-    <row r="3788" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3788" s="1" t="s">
         <v>384</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>3401059</v>
       </c>
     </row>
-    <row r="3794" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3794" s="1" t="s">
         <v>385</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>1905202</v>
       </c>
     </row>
-    <row r="3800" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3800" s="1" t="s">
         <v>386</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>2255758</v>
       </c>
     </row>
-    <row r="3806" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3806" s="1" t="s">
         <v>387</v>
       </c>
@@ -31042,7 +31042,7 @@
         <v>2697514</v>
       </c>
     </row>
-    <row r="3812" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3812" s="1" t="s">
         <v>388</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>2684743</v>
       </c>
     </row>
-    <row r="3818" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3818" s="1" t="s">
         <v>389</v>
       </c>
@@ -31102,7 +31102,7 @@
         <v>11892821</v>
       </c>
     </row>
-    <row r="3824" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3824" s="1" t="s">
         <v>390</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>3563142</v>
       </c>
     </row>
-    <row r="3830" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3830" s="1" t="s">
         <v>391</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>5164195</v>
       </c>
     </row>
-    <row r="3836" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3836" s="1" t="s">
         <v>392</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>10140571</v>
       </c>
     </row>
-    <row r="3842" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3842" s="1" t="s">
         <v>393</v>
       </c>
@@ -31222,7 +31222,7 @@
         <v>23788863</v>
       </c>
     </row>
-    <row r="3848" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3848" s="1" t="s">
         <v>394</v>
       </c>
@@ -31252,7 +31252,7 @@
         <v>13142697</v>
       </c>
     </row>
-    <row r="3854" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3854" s="1" t="s">
         <v>395</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>7532154</v>
       </c>
     </row>
-    <row r="3860" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3860" s="1" t="s">
         <v>396</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>25823988</v>
       </c>
     </row>
-    <row r="3914" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3914" s="1" t="s">
         <v>397</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>6489228</v>
       </c>
     </row>
-    <row r="3920" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3920" s="1" t="s">
         <v>398</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>4991343</v>
       </c>
     </row>
-    <row r="3926" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3926" s="1" t="s">
         <v>399</v>
       </c>
@@ -31642,7 +31642,7 @@
         <v>4240662</v>
       </c>
     </row>
-    <row r="3932" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3932" s="1" t="s">
         <v>400</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>2443996</v>
       </c>
     </row>
-    <row r="3938" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3938" s="1" t="s">
         <v>401</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>3077023</v>
       </c>
     </row>
-    <row r="3944" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3944" s="1" t="s">
         <v>402</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>3160066</v>
       </c>
     </row>
-    <row r="3950" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3950" s="1" t="s">
         <v>403</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>4542412</v>
       </c>
     </row>
-    <row r="3956" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3956" s="1" t="s">
         <v>404</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>5065713</v>
       </c>
     </row>
-    <row r="3962" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3962" s="1" t="s">
         <v>405</v>
       </c>
@@ -31822,7 +31822,7 @@
         <v>10236941</v>
       </c>
     </row>
-    <row r="3968" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3968" s="1" t="s">
         <v>406</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>2912065</v>
       </c>
     </row>
-    <row r="3974" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3974" s="1" t="s">
         <v>407</v>
       </c>
@@ -31882,7 +31882,7 @@
         <v>6738487</v>
       </c>
     </row>
-    <row r="3980" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3980" s="1" t="s">
         <v>408</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>3790159</v>
       </c>
     </row>
-    <row r="3986" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3986" s="1" t="s">
         <v>409</v>
       </c>
@@ -32212,7 +32212,7 @@
         <v>2409687</v>
       </c>
     </row>
-    <row r="4046" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4046" s="1" t="s">
         <v>410</v>
       </c>
@@ -32242,7 +32242,7 @@
         <v>3151919</v>
       </c>
     </row>
-    <row r="4052" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4052" s="1" t="s">
         <v>411</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>2500741</v>
       </c>
     </row>
-    <row r="4058" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4058" s="1" t="s">
         <v>412</v>
       </c>
@@ -32302,7 +32302,7 @@
         <v>3212043</v>
       </c>
     </row>
-    <row r="4064" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4064" s="1" t="s">
         <v>413</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>3647142</v>
       </c>
     </row>
-    <row r="4070" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4070" s="1" t="s">
         <v>414</v>
       </c>
@@ -32362,7 +32362,7 @@
         <v>3613789</v>
       </c>
     </row>
-    <row r="4076" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4076" s="1" t="s">
         <v>415</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>3693043</v>
       </c>
     </row>
-    <row r="4082" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4082" s="1" t="s">
         <v>416</v>
       </c>
@@ -32422,7 +32422,7 @@
         <v>6200814</v>
       </c>
     </row>
-    <row r="4088" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4088" s="1" t="s">
         <v>417</v>
       </c>
@@ -32452,7 +32452,7 @@
         <v>2507526</v>
       </c>
     </row>
-    <row r="4094" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4094" s="1" t="s">
         <v>418</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>3573574</v>
       </c>
     </row>
-    <row r="4100" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4100" s="1" t="s">
         <v>419</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>4289188</v>
       </c>
     </row>
-    <row r="4106" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4106" s="1" t="s">
         <v>420</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>3227720</v>
       </c>
     </row>
-    <row r="4112" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4112" s="1" t="s">
         <v>421</v>
       </c>
@@ -32842,7 +32842,7 @@
         <v>11129954</v>
       </c>
     </row>
-    <row r="4172" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4172" s="1" t="s">
         <v>422</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>25461816</v>
       </c>
     </row>
-    <row r="4178" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4178" s="1" t="s">
         <v>423</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>7634040</v>
       </c>
     </row>
-    <row r="4184" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4184" s="1" t="s">
         <v>424</v>
       </c>
@@ -32932,7 +32932,7 @@
         <v>4480900</v>
       </c>
     </row>
-    <row r="4190" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4190" s="1" t="s">
         <v>425</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>5015678</v>
       </c>
     </row>
-    <row r="4196" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4196" s="1" t="s">
         <v>426</v>
       </c>
@@ -32992,7 +32992,7 @@
         <v>3811688</v>
       </c>
     </row>
-    <row r="4202" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4202" s="1" t="s">
         <v>427</v>
       </c>
@@ -33022,7 +33022,7 @@
         <v>4442296</v>
       </c>
     </row>
-    <row r="4208" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4208" s="1" t="s">
         <v>428</v>
       </c>
@@ -33052,7 +33052,7 @@
         <v>4411236</v>
       </c>
     </row>
-    <row r="4214" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4214" s="1" t="s">
         <v>429</v>
       </c>
@@ -33082,7 +33082,7 @@
         <v>4283973</v>
       </c>
     </row>
-    <row r="4220" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4220" s="1" t="s">
         <v>430</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>3976140</v>
       </c>
     </row>
-    <row r="4226" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4226" s="1" t="s">
         <v>431</v>
       </c>
@@ -33142,7 +33142,7 @@
         <v>5083896</v>
       </c>
     </row>
-    <row r="4232" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
         <v>432</v>
       </c>
@@ -33172,7 +33172,7 @@
         <v>1866968</v>
       </c>
     </row>
-    <row r="4238" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4238" s="1" t="s">
         <v>433</v>
       </c>
@@ -33202,7 +33202,7 @@
         <v>2518099</v>
       </c>
     </row>
-    <row r="4244" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4244" s="1" t="s">
         <v>434</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>3132462</v>
       </c>
     </row>
-    <row r="4298" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4298" s="1" t="s">
         <v>435</v>
       </c>
@@ -33502,7 +33502,7 @@
         <v>4737004</v>
       </c>
     </row>
-    <row r="4304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4304" s="1" t="s">
         <v>436</v>
       </c>
@@ -33532,7 +33532,7 @@
         <v>4473975</v>
       </c>
     </row>
-    <row r="4310" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4310" s="1" t="s">
         <v>437</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>2771245</v>
       </c>
     </row>
-    <row r="4316" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4316" s="1" t="s">
         <v>438</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>2580281</v>
       </c>
     </row>
-    <row r="4322" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4322" s="1" t="s">
         <v>439</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>2452243</v>
       </c>
     </row>
-    <row r="4328" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4328" s="1" t="s">
         <v>440</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>3031202</v>
       </c>
     </row>
-    <row r="4334" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4334" s="1" t="s">
         <v>441</v>
       </c>
@@ -33682,7 +33682,7 @@
         <v>2489767</v>
       </c>
     </row>
-    <row r="4340" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4340" s="1" t="s">
         <v>442</v>
       </c>
@@ -33712,7 +33712,7 @@
         <v>2706084</v>
       </c>
     </row>
-    <row r="4346" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4346" s="1" t="s">
         <v>443</v>
       </c>
@@ -33742,7 +33742,7 @@
         <v>2263065</v>
       </c>
     </row>
-    <row r="4352" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4352" s="1" t="s">
         <v>444</v>
       </c>
@@ -33772,7 +33772,7 @@
         <v>3215889</v>
       </c>
     </row>
-    <row r="4358" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4358" s="1" t="s">
         <v>445</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>2937099</v>
       </c>
     </row>
-    <row r="4412" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4412" s="1" t="s">
         <v>446</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>2749181</v>
       </c>
     </row>
-    <row r="4418" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4418" s="1" t="s">
         <v>447</v>
       </c>
@@ -34102,7 +34102,7 @@
         <v>1886009</v>
       </c>
     </row>
-    <row r="4424" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4424" s="1" t="s">
         <v>448</v>
       </c>
@@ -34132,7 +34132,7 @@
         <v>3155663</v>
       </c>
     </row>
-    <row r="4430" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4430" s="1" t="s">
         <v>449</v>
       </c>
@@ -34162,7 +34162,7 @@
         <v>3348804</v>
       </c>
     </row>
-    <row r="4436" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4436" s="1" t="s">
         <v>450</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>2701754</v>
       </c>
     </row>
-    <row r="4442" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4442" s="1" t="s">
         <v>451</v>
       </c>
@@ -34222,7 +34222,7 @@
         <v>4073851</v>
       </c>
     </row>
-    <row r="4448" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4448" s="1" t="s">
         <v>452</v>
       </c>
@@ -34252,7 +34252,7 @@
         <v>3628462</v>
       </c>
     </row>
-    <row r="4454" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4454" s="1" t="s">
         <v>453</v>
       </c>
@@ -34282,7 +34282,7 @@
         <v>5234754</v>
       </c>
     </row>
-    <row r="4460" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4460" s="1" t="s">
         <v>454</v>
       </c>
@@ -34312,7 +34312,7 @@
         <v>3193955</v>
       </c>
     </row>
-    <row r="4466" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4466" s="1" t="s">
         <v>455</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>4265733</v>
       </c>
     </row>
-    <row r="4472" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4472" s="1" t="s">
         <v>456</v>
       </c>
@@ -34372,7 +34372,7 @@
         <v>4259664</v>
       </c>
     </row>
-    <row r="4478" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4478" s="1" t="s">
         <v>457</v>
       </c>
